--- a/生活水平.xlsx
+++ b/生活水平.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yanyishang\datamining\dataminging\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF518619-30BE-4245-B2F2-D14AF2277800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="14055" activeTab="4"/>
+    <workbookView xWindow="2500" yWindow="2500" windowWidth="14400" windowHeight="7270" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人均可支配收入" sheetId="1" r:id="rId1"/>
@@ -146,31 +152,29 @@
     <t>city13</t>
   </si>
   <si>
-    <t>ctiy31</t>
-  </si>
-  <si>
-    <t>ctiy22</t>
-  </si>
-  <si>
     <t>city30</t>
   </si>
   <si>
     <t>rural_disposableIcome</t>
   </si>
+  <si>
+    <t>city31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>city22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,345 +196,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -538,258 +227,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -797,62 +240,22 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1110,34 +513,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1166,8 +569,8 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1195,8 +598,8 @@
         <v>70842</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1224,8 +627,8 @@
         <v>61698</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1253,8 +656,8 @@
         <v>24624</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1282,7 +685,7 @@
         <v>26724</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +714,7 @@
         <v>60048</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1340,7 +743,7 @@
         <v>57492</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +772,7 @@
         <v>62508</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +801,7 @@
         <v>60846</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1427,7 +830,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +859,7 @@
         <v>30204</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1485,7 +888,7 @@
         <v>68904</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1514,8 +917,8 @@
         <v>55878</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1543,8 +946,8 @@
         <v>42648</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1572,8 +975,8 @@
         <v>61388</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1601,8 +1004,8 @@
         <v>30968</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -1630,8 +1033,8 @@
         <v>37068</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1659,8 +1062,8 @@
         <v>27644</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -1688,8 +1091,8 @@
         <v>30392</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -1717,8 +1120,8 @@
         <v>67708</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -1746,8 +1149,8 @@
         <v>65436</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1775,8 +1178,8 @@
         <v>55496</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1803,53 +1206,40 @@
       <c r="I24">
         <v>59588</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1878,8 +1268,8 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1907,8 +1297,8 @@
         <v>46280</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1936,8 +1326,8 @@
         <v>40540</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1965,8 +1355,8 @@
         <v>18025</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1994,7 +1384,7 @@
         <v>18275</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2023,7 +1413,7 @@
         <v>37155</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2052,7 +1442,7 @@
         <v>35870</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2081,7 +1471,7 @@
         <v>37445</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2110,7 +1500,7 @@
         <v>37560</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2139,8 +1529,8 @@
         <v>30385</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2168,8 +1558,8 @@
         <v>21330</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2197,8 +1587,8 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14">
@@ -2226,8 +1616,8 @@
         <v>34070</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -2255,8 +1645,8 @@
         <v>36465</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
@@ -2284,8 +1674,8 @@
         <v>25040</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17">
@@ -2313,8 +1703,8 @@
         <v>42333</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18">
@@ -2342,8 +1732,8 @@
         <v>22491</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19">
@@ -2371,8 +1761,8 @@
         <v>24192</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20">
@@ -2400,8 +1790,8 @@
         <v>18858</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21">
@@ -2429,8 +1819,8 @@
         <v>19092</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22">
@@ -2458,8 +1848,8 @@
         <v>446007</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B23">
@@ -2487,8 +1877,8 @@
         <v>40476</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24">
@@ -2516,8 +1906,8 @@
         <v>36225</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25">
@@ -2544,60 +1934,44 @@
       <c r="I25">
         <v>39900</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2638,8 +2012,8 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -2679,8 +2053,8 @@
         <v>46284</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -2720,8 +2094,8 @@
         <v>41324</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -2760,10 +2134,10 @@
       <c r="M5">
         <v>20164</v>
       </c>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2" t="s">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2802,10 +2176,10 @@
       <c r="M6">
         <v>20636</v>
       </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="5" t="s">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7">
@@ -2836,8 +2210,8 @@
         <v>41532</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="E8">
@@ -2868,8 +2242,8 @@
         <v>42044</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="E9">
@@ -2900,8 +2274,8 @@
         <v>42764</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="E10">
@@ -2932,8 +2306,8 @@
         <v>36676</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="E11">
@@ -2964,7 +2338,7 @@
         <v>42304</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2978,8 +2352,8 @@
         <v>14860</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -3019,8 +2393,8 @@
         <v>25072</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
@@ -3060,13 +2434,10 @@
         <v>47160</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
       <c r="E15">
         <v>23504</v>
       </c>
@@ -3095,13 +2466,10 @@
         <v>43028</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
       <c r="E16">
         <v>16992</v>
       </c>
@@ -3130,8 +2498,8 @@
         <v>31428</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17">
@@ -3171,8 +2539,8 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18">
@@ -3212,8 +2580,8 @@
         <v>25266</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19">
@@ -3253,8 +2621,8 @@
         <v>27912</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20">
@@ -3294,8 +2662,8 @@
         <v>23268</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21">
@@ -3335,13 +2703,10 @@
         <v>23028</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
       <c r="E22">
         <v>30656</v>
       </c>
@@ -3370,13 +2735,10 @@
         <v>48628</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
       <c r="E23">
         <v>25012</v>
       </c>
@@ -3405,13 +2767,10 @@
         <v>45360</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
       <c r="E24">
         <v>24028</v>
       </c>
@@ -3440,8 +2799,8 @@
         <v>42096</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B25">
@@ -3481,8 +2840,8 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B26">
@@ -3522,8 +2881,8 @@
         <v>36864</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B27">
@@ -3563,8 +2922,8 @@
         <v>38571</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B28">
@@ -3604,8 +2963,8 @@
         <v>31674</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B29">
@@ -3645,8 +3004,8 @@
         <v>22029</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B30">
@@ -3685,48 +3044,44 @@
       <c r="M30">
         <v>33525</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3767,8 +3122,8 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -3805,8 +3160,8 @@
         <v>25032</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
@@ -3843,8 +3198,8 @@
         <v>16020</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -3880,10 +3235,10 @@
       <c r="L5">
         <v>16452</v>
       </c>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2" t="s">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="D6">
@@ -3916,10 +3271,10 @@
       <c r="M6">
         <v>29356</v>
       </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
@@ -3953,8 +3308,8 @@
         <v>29724</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
@@ -3988,8 +3343,8 @@
         <v>29772</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="D9">
@@ -4023,8 +3378,8 @@
         <v>23576</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="D10">
@@ -4058,7 +3413,7 @@
         <v>30568</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -4072,8 +3427,8 @@
         <v>6920</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -4113,8 +3468,8 @@
         <v>16304</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -4154,13 +3509,10 @@
         <v>26092</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
       <c r="E14">
         <v>11804</v>
       </c>
@@ -4189,13 +3541,10 @@
         <v>23812</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
       <c r="E15">
         <v>9072</v>
       </c>
@@ -4224,8 +3573,8 @@
         <v>17868</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -4265,8 +3614,8 @@
         <v>26928</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -4306,8 +3655,8 @@
         <v>16914</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -4347,8 +3696,8 @@
         <v>16422</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -4388,8 +3737,8 @@
         <v>15180</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -4429,13 +3778,10 @@
         <v>14997</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
       <c r="E21">
         <v>16020</v>
       </c>
@@ -4464,13 +3810,10 @@
         <v>30222</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
       <c r="E22">
         <v>14442</v>
       </c>
@@ -4499,13 +3842,10 @@
         <v>27450</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
       <c r="E23">
         <v>13641</v>
       </c>
@@ -4534,13 +3874,10 @@
         <v>26838</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
       <c r="E24">
         <v>12390</v>
       </c>
@@ -4569,136 +3906,130 @@
         <v>24006</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="2"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="2"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="10" width="10.775" customWidth="1"/>
+    <col min="2" max="10" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4739,8 +4070,8 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -4777,8 +4108,8 @@
         <v>70845</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -4815,8 +4146,8 @@
         <v>62940</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -4852,10 +4183,10 @@
       <c r="L5">
         <v>30445</v>
       </c>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2" t="s">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -4891,10 +4222,10 @@
       <c r="L6">
         <v>33420</v>
       </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2" t="s">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
@@ -4927,10 +4258,10 @@
       <c r="M7">
         <v>71040</v>
       </c>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
@@ -4964,8 +4295,8 @@
         <v>71965</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="D9">
@@ -4999,8 +4330,8 @@
         <v>76195</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="D10">
@@ -5034,8 +4365,8 @@
         <v>55780</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="D11">
@@ -5069,8 +4400,8 @@
         <v>72095</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="C12">
@@ -5107,8 +4438,8 @@
         <v>73330</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13">
@@ -5145,8 +4476,8 @@
         <v>46040</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14">
@@ -5186,8 +4517,8 @@
         <v>56575</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="C15">
@@ -5224,8 +4555,8 @@
         <v>36755</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16">
@@ -5265,8 +4596,8 @@
         <v>37620</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17">
@@ -5306,8 +4637,8 @@
         <v>74415</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18">
@@ -5344,8 +4675,8 @@
         <v>65820</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="E19">
@@ -5376,8 +4707,8 @@
         <v>67370</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="E20">
@@ -5408,8 +4739,8 @@
         <v>54575</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B21">
@@ -5449,8 +4780,8 @@
         <v>64233</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B22">
@@ -5490,9 +4821,9 @@
         <v>35598</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="4" t="s">
-        <v>39</v>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B23">
         <v>21150</v>
@@ -5531,8 +4862,8 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B24">
@@ -5572,8 +4903,8 @@
         <v>35988</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B25">
@@ -5613,13 +4944,10 @@
         <v>37791</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
       <c r="E26">
         <v>40923</v>
       </c>
@@ -5648,13 +4976,10 @@
         <v>74700</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
       <c r="E27">
         <v>40425</v>
       </c>
@@ -5683,13 +5008,10 @@
         <v>73869</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
       <c r="E28">
         <v>36480</v>
       </c>
@@ -5718,9 +5040,9 @@
         <v>68052</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="4" t="s">
-        <v>40</v>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B29">
         <v>28311</v>
@@ -5759,12 +5081,10 @@
         <v>73593</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D30">
         <v>24342</v>
       </c>
@@ -5796,8 +5116,8 @@
         <v>39861</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -5837,8 +5157,8 @@
         <v>60237</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B32">
@@ -5878,8 +5198,8 @@
         <v>57447</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B33">
@@ -5919,8 +5239,8 @@
         <v>50094</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B34">
@@ -5960,8 +5280,8 @@
         <v>37842</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B35">
@@ -6000,60 +5320,44 @@
       <c r="M35">
         <v>56625</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6094,8 +5398,8 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -6132,8 +5436,8 @@
         <v>37064</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
@@ -6170,8 +5474,8 @@
         <v>19144</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -6208,8 +5512,8 @@
         <v>21560</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="D6">
@@ -6243,8 +5547,8 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
@@ -6278,8 +5582,8 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
@@ -6313,8 +5617,8 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="D9">
@@ -6348,8 +5652,8 @@
         <v>28468</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="D10">
@@ -6383,8 +5687,8 @@
         <v>46276</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
@@ -6421,8 +5725,8 @@
         <v>41932</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="F12">
@@ -6450,8 +5754,8 @@
         <v>23404</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
       <c r="B13">
@@ -6491,8 +5795,8 @@
         <v>29416</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
       <c r="E14">
@@ -6523,8 +5827,8 @@
         <v>23056</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -6564,8 +5868,8 @@
         <v>20252</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -6605,8 +5909,8 @@
         <v>34532</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17">
@@ -6615,8 +5919,6 @@
       <c r="C17">
         <v>14836</v>
       </c>
-      <c r="D17"/>
-      <c r="E17"/>
       <c r="F17">
         <v>20132</v>
       </c>
@@ -6642,13 +5944,10 @@
         <v>35820</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
       <c r="E18">
         <v>16660</v>
       </c>
@@ -6677,13 +5976,10 @@
         <v>33708</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
       <c r="E19">
         <v>13808</v>
       </c>
@@ -6712,8 +6008,8 @@
         <v>29264</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20">
@@ -6753,8 +6049,8 @@
         <v>34392</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B21">
@@ -6794,8 +6090,8 @@
         <v>20817</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B22">
@@ -6834,10 +6130,10 @@
       <c r="M22">
         <v>23376</v>
       </c>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="3" t="s">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B23">
@@ -6876,10 +6172,10 @@
       <c r="M23">
         <v>20691</v>
       </c>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="3" t="s">
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24">
@@ -6918,15 +6214,12 @@
       <c r="M24">
         <v>22686</v>
       </c>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="4" t="s">
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
       <c r="E25">
         <v>35763</v>
       </c>
@@ -6955,13 +6248,10 @@
         <v>67707</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
       <c r="E26">
         <v>34656</v>
       </c>
@@ -6990,13 +6280,10 @@
         <v>65436</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
       <c r="E27">
         <v>28215</v>
       </c>
@@ -7025,13 +6312,10 @@
         <v>55497</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
       <c r="E28">
         <v>30600</v>
       </c>
@@ -7060,13 +6344,10 @@
         <v>59586</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
       <c r="E29">
         <v>16530</v>
       </c>
@@ -7095,14 +6376,10 @@
         <v>32700</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F30">
         <v>11697</v>
       </c>
@@ -7132,7 +6409,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>